--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/123/word_level_predictions_123.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,267 +1277,267 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,57 +4553,57 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14698,574 +14698,574 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>25</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>Stop</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>2</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>25</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>3</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F276" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
+      <c r="A277" t="n">
         <v>25</v>
       </c>
-      <c r="B277" s="2" t="inlineStr">
+      <c r="B277" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C277" s="2" t="inlineStr">
+      <c r="C277" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D277" s="2" t="n">
+      <c r="D277" t="n">
         <v>4</v>
       </c>
-      <c r="E277" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F277" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G277" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L277" s="2" t="inlineStr">
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G277" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I277" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K277" t="b">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
+      <c r="A278" t="n">
         <v>25</v>
       </c>
-      <c r="B278" s="2" t="inlineStr">
+      <c r="B278" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C278" s="2" t="inlineStr">
+      <c r="C278" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="D278" s="2" t="n">
+      <c r="D278" t="n">
         <v>5</v>
       </c>
-      <c r="E278" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F278" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G278" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L278" s="2" t="inlineStr">
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G278" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I278" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K278" t="b">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
+      <c r="A279" t="n">
         <v>25</v>
       </c>
-      <c r="B279" s="2" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C279" s="2" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D279" s="2" t="n">
+      <c r="D279" t="n">
         <v>6</v>
       </c>
-      <c r="E279" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F279" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G279" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L279" s="2" t="inlineStr">
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G279" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I279" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K279" t="b">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" t="n">
         <v>25</v>
       </c>
-      <c r="B280" s="2" t="inlineStr">
+      <c r="B280" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C280" s="2" t="inlineStr">
+      <c r="C280" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D280" s="2" t="n">
+      <c r="D280" t="n">
         <v>7</v>
       </c>
-      <c r="E280" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F280" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L280" s="2" t="inlineStr">
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K280" t="b">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" t="n">
         <v>25</v>
       </c>
-      <c r="B281" s="2" t="inlineStr">
+      <c r="B281" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C281" s="2" t="inlineStr">
+      <c r="C281" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="D281" s="2" t="n">
+      <c r="D281" t="n">
         <v>8</v>
       </c>
-      <c r="E281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G281" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L281" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K281" t="b">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" t="n">
         <v>25</v>
       </c>
-      <c r="B282" s="2" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
+      <c r="D282" t="n">
         <v>9</v>
       </c>
-      <c r="E282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L282" s="2" t="inlineStr">
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" t="n">
         <v>25</v>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
+      <c r="D283" t="n">
         <v>10</v>
       </c>
-      <c r="E283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G283" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" t="n">
         <v>25</v>
       </c>
-      <c r="B284" s="2" t="inlineStr">
+      <c r="B284" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C284" s="2" t="inlineStr">
+      <c r="C284" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D284" s="2" t="n">
+      <c r="D284" t="n">
         <v>11</v>
       </c>
-      <c r="E284" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F284" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G284" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L284" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G284" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" t="b">
+        <v>1</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K284" t="b">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" t="n">
         <v>25</v>
       </c>
-      <c r="B285" s="2" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
+      <c r="D285" t="n">
         <v>12</v>
       </c>
-      <c r="E285" s="2" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F285" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L285" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G285" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I285" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F342" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" s="2" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L389" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" s="2" t="n">
+      <c r="D390" t="n">
         <v>3</v>
       </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" t="n">
         <v>41</v>
       </c>
-      <c r="B447" s="2" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" s="2" t="inlineStr">
+      <c r="C447" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" s="2" t="n">
+      <c r="D447" t="n">
         <v>0</v>
       </c>
-      <c r="E447" s="2" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L447" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G447" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K447" t="b">
+        <v>1</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" t="n">
         <v>41</v>
       </c>
-      <c r="B448" s="2" t="inlineStr">
+      <c r="B448" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" s="2" t="inlineStr">
+      <c r="C448" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K448" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L448" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G448" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K448" t="b">
+        <v>1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" t="n">
         <v>41</v>
       </c>
-      <c r="B449" s="2" t="inlineStr">
+      <c r="B449" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" s="2" t="inlineStr">
+      <c r="C449" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" s="2" t="n">
+      <c r="D449" t="n">
         <v>2</v>
       </c>
-      <c r="E449" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K449" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L449" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G449" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K449" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" t="n">
         <v>41</v>
       </c>
-      <c r="B450" s="2" t="inlineStr">
+      <c r="B450" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" s="2" t="inlineStr">
+      <c r="C450" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" s="2" t="n">
+      <c r="D450" t="n">
         <v>3</v>
       </c>
-      <c r="E450" s="2" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L450" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G450" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K450" t="b">
+        <v>1</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/123/word_level_predictions_123.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,267 +1277,267 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,81 +4529,81 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14698,574 +14698,574 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>Stop</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
+      <c r="F275" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
+      <c r="A277" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B277" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="C277" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D277" t="n">
+      <c r="D277" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G277" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I277" t="b">
-        <v>1</v>
-      </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K277" t="b">
-        <v>1</v>
-      </c>
-      <c r="L277" t="inlineStr">
+      <c r="E277" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F277" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G277" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J277" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L277" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
+      <c r="A278" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C278" s="2" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="D278" t="n">
+      <c r="D278" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G278" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I278" t="b">
-        <v>1</v>
-      </c>
-      <c r="J278" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K278" t="b">
-        <v>1</v>
-      </c>
-      <c r="L278" t="inlineStr">
+      <c r="E278" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J278" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L278" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
+      <c r="A279" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C279" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D279" t="n">
+      <c r="D279" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I279" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K279" t="b">
-        <v>1</v>
-      </c>
-      <c r="L279" t="inlineStr">
+      <c r="E279" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F279" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G279" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J279" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L279" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C280" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D280" t="n">
+      <c r="D280" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K280" t="b">
-        <v>1</v>
-      </c>
-      <c r="L280" t="inlineStr">
+      <c r="E280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J280" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L280" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281" s="2" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="D281" t="n">
+      <c r="D281" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K281" t="b">
-        <v>1</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J281" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L281" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K282" t="b">
-        <v>1</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="E282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D283" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K283" t="b">
-        <v>1</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D284" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" t="b">
-        <v>1</v>
-      </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K284" t="b">
-        <v>1</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E284" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F284" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G284" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J284" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L284" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I285" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K285" t="b">
-        <v>1</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F285" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J285" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18130,106 +18130,106 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D342" t="n">
         <v>3</v>
       </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>35</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E390" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23642,210 +23642,210 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
+      <c r="A447" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B447" t="inlineStr">
+      <c r="B447" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
+      <c r="C447" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E447" t="inlineStr">
+      <c r="E447" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G447" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K447" t="b">
-        <v>1</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F447" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K447" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L447" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
+      <c r="A448" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B448" t="inlineStr">
+      <c r="B448" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
+      <c r="C448" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G448" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K448" t="b">
-        <v>1</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D448" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K448" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L448" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
+      <c r="A449" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B449" t="inlineStr">
+      <c r="B449" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C449" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" t="n">
+      <c r="D449" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G449" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K449" t="b">
-        <v>1</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E449" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K449" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L449" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
+      <c r="A450" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B450" t="inlineStr">
+      <c r="B450" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
+      <c r="C450" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" t="n">
+      <c r="D450" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E450" t="inlineStr">
+      <c r="E450" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G450" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K450" t="b">
-        <v>1</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F450" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L450" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
